--- a/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:04:22+00:00</t>
+    <t>2022-08-05T01:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -627,38 +627,13 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/vitalSigns-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>vitalSigns</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -1816,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1849,7 +1824,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3580,24 +3555,24 @@
       <c r="W15" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB15" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>188</v>
@@ -3624,10 +3599,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3635,13 +3610,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3657,22 +3630,22 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3682,7 +3655,7 @@
         <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>81</v>
@@ -3699,11 +3672,9 @@
       <c r="W16" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3721,13 +3692,13 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
@@ -3736,31 +3707,31 @@
         <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3779,19 +3750,19 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3816,11 +3787,13 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3838,10 +3811,10 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3853,27 +3826,27 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3881,10 +3854,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
@@ -3896,20 +3869,18 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3957,13 +3928,13 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
@@ -3972,19 +3943,19 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3996,14 +3967,14 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
@@ -4015,18 +3986,20 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4080,7 +4053,7 @@
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4089,19 +4062,19 @@
         <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4109,11 +4082,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4132,19 +4105,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4193,7 +4166,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4208,19 +4181,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4228,11 +4201,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4251,20 +4224,18 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4312,7 +4283,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4327,19 +4298,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4347,7 +4318,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4358,7 +4329,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4370,18 +4341,20 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4429,13 +4402,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4444,19 +4417,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4464,7 +4437,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4475,7 +4448,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4487,19 +4460,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4548,42 +4521,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4603,22 +4576,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4643,13 +4616,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4667,7 +4640,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4676,7 +4649,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4685,35 +4658,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4728,16 +4701,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4762,13 +4735,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4786,16 +4759,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4804,28 +4777,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4844,19 +4817,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4881,31 +4854,31 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4923,24 +4896,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4951,7 +4924,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4963,20 +4936,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5000,13 +4971,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5024,13 +4995,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5042,24 +5013,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5085,15 +5056,17 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5117,31 +5090,31 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5159,24 +5132,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5199,20 +5172,18 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5236,13 +5207,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5260,7 +5231,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5278,24 +5249,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5318,16 +5289,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5377,7 +5348,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5395,24 +5366,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5423,7 +5394,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5435,18 +5406,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5494,42 +5467,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5540,7 +5513,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5552,20 +5525,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>356</v>
       </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5613,19 +5582,19 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5634,10 +5603,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5648,18 +5617,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5671,15 +5640,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5728,19 +5699,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5752,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5763,11 +5734,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5780,24 +5751,26 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5845,7 +5818,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5842,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5880,43 +5853,39 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5964,31 +5933,31 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5999,7 +5968,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6022,7 +5991,7 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>375</v>
@@ -6079,7 +6048,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6057,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6100,10 +6069,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6114,7 +6083,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6137,16 +6106,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6170,13 +6143,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6194,7 +6167,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6203,7 +6176,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6212,13 +6185,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6229,7 +6202,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6240,7 +6213,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6255,16 +6228,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6289,13 +6262,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6313,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6331,13 +6304,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6348,7 +6321,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6359,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6371,19 +6344,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6408,13 +6379,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6432,13 +6403,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6450,13 +6421,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6490,18 +6461,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6570,10 +6539,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6584,7 +6553,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6595,7 +6564,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6604,18 +6573,20 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6664,13 +6635,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6685,10 +6656,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6699,7 +6670,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6722,16 +6693,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6781,7 +6752,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6773,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>416</v>
@@ -6839,18 +6810,20 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6919,10 +6892,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6933,7 +6906,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6944,7 +6917,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6953,23 +6926,19 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7017,19 +6986,19 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7038,10 +7007,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7052,18 +7021,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7075,15 +7044,17 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7132,19 +7103,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7156,7 +7127,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7167,11 +7138,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7184,24 +7155,26 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7249,7 +7222,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7273,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7284,42 +7257,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7344,13 +7317,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7368,34 +7341,34 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7403,7 +7376,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7411,7 +7384,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7426,19 +7399,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7463,13 +7436,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7487,10 +7460,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7505,24 +7478,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7542,22 +7515,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7582,13 +7555,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7606,7 +7579,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7615,7 +7588,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7624,35 +7597,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7667,16 +7640,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7701,13 +7674,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7725,16 +7698,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7743,28 +7716,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7783,19 +7756,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7820,13 +7793,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7844,7 +7817,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7862,137 +7835,18 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T01:52:57+00:00</t>
+    <t>2022-08-05T09:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:16:15+00:00</t>
+    <t>2022-08-05T11:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T11:27:15+00:00</t>
+    <t>2022-08-06T09:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
